--- a/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,45%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,2%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>22,52%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>34,42%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,42%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>30,46%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>21,97%</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>23,86%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>25,34%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>32,64%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>23,71%</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>51771</v>
+        <v>51772</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>32,91%</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
         <v>159</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>164714</v>
+        <v>164715</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>64,78%</t>
+          <t>64,99%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>50,29%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,17%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,61%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>566</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>580624</v>
+        <v>580625</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,02%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,68%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>35,36%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>34,36%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>22,6%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,6%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -3208,7 +3208,7 @@
         <v>4823</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>3282052</v>
+        <v>3282053</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1100,7 +1100,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">

--- a/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>14,85%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>24,75%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>29,77%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,43%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>35,3%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,06%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,67%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>30,61%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>21,88%</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>24,14%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,46%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>25,62%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>32,71%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,53%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>23,83%</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>51772</v>
+        <v>51771</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>33,02%</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
         <v>159</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>164715</v>
+        <v>164714</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>53,68%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,13%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,65%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>566</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>580625</v>
+        <v>580624</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>25,67%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>34,53%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,76%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>22,61%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>17,64%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -3208,7 +3208,7 @@
         <v>4823</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>3282053</v>
+        <v>3282052</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>11054</v>
+        <v>47846</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>10630</v>
+        <v>60556</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>21683</v>
+        <v>108402</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>21251</v>
+        <v>131899</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>19809</v>
+        <v>123343</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>65</v>
+        <v>352</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>41061</v>
+        <v>255242</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,21%</t>
         </is>
       </c>
     </row>
@@ -821,66 +821,66 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>26017</v>
+        <v>151450</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>22827</v>
+        <v>161955</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>76</v>
+        <v>502</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>48844</v>
+        <v>313405</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,29%</t>
         </is>
       </c>
     </row>
@@ -892,66 +892,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>11661</v>
+        <v>105129</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>24255</v>
+        <v>117647</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>65</v>
+        <v>378</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>35917</v>
+        <v>222776</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -963,66 +963,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>20285</v>
+        <v>113486</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>41074</v>
+        <v>154780</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>61359</v>
+        <v>268266</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>25,07%</t>
         </is>
       </c>
     </row>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>109</v>
+        <v>663</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>90269</v>
+        <v>549810</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>225</v>
+        <v>1151</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>118595</v>
+        <v>618281</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>334</v>
+        <v>1814</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>208864</v>
+        <v>1168090</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1109,66 +1109,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>37395</v>
+        <v>71032</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>54296</v>
+        <v>52695</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>91691</v>
+        <v>123727</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -1180,66 +1180,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>111042</v>
+        <v>156815</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>110944</v>
+        <v>195767</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>287</v>
+        <v>470</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>221986</v>
+        <v>352582</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>25,4%</t>
         </is>
       </c>
     </row>
@@ -1251,66 +1251,66 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>130459</v>
+        <v>233068</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>264</v>
+        <v>404</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>150893</v>
+        <v>229537</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>426</v>
+        <v>644</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>281351</v>
+        <v>462606</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>32,79%</t>
         </is>
       </c>
     </row>
@@ -1322,66 +1322,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>97510</v>
+        <v>116719</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>101535</v>
+        <v>135580</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>199045</v>
+        <v>252299</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -1393,66 +1393,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>95307</v>
+        <v>141014</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>122657</v>
+        <v>196218</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>345</v>
+        <v>485</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>217964</v>
+        <v>337232</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>24,15%</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>554</v>
+        <v>784</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>471713</v>
+        <v>718648</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>926</v>
+        <v>1333</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>540325</v>
+        <v>809797</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>1480</v>
+        <v>2117</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1012038</v>
+        <v>1528445</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1539,66 +1539,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>71083</v>
+        <v>50327</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>57460</v>
+        <v>44147</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>128542</v>
+        <v>94474</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>8,63%</t>
         </is>
       </c>
     </row>
@@ -1610,66 +1610,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>164362</v>
+        <v>190977</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>29,73%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>215075</v>
+        <v>181682</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>379438</v>
+        <v>372659</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>32,37%</t>
         </is>
       </c>
     </row>
@@ -1681,66 +1681,66 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>240953</v>
+        <v>157251</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>404</v>
+        <v>282</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>252385</v>
+        <v>420960</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>76,08%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>493337</v>
+        <v>578212</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>65,63%</t>
         </is>
       </c>
     </row>
@@ -1752,66 +1752,66 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>124029</v>
+        <v>78594</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>150555</v>
+        <v>74541</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>274584</v>
+        <v>153134</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -1823,66 +1823,66 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>143881</v>
+        <v>83050</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>318</v>
+        <v>189</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>210331</v>
+        <v>111960</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>485</v>
+        <v>286</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>354212</v>
+        <v>195010</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>784</v>
+        <v>566</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>744308</v>
+        <v>560198</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>1333</v>
+        <v>935</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>885806</v>
+        <v>833291</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>2117</v>
+        <v>1501</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1630114</v>
+        <v>1393489</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -1969,66 +1969,66 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>51771</v>
+        <v>43819</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>47840</v>
+        <v>52005</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>99612</v>
+        <v>95824</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -2040,66 +2040,66 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>197237</v>
+        <v>197137</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>195310</v>
+        <v>193486</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>392547</v>
+        <v>390623</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>26,19%</t>
         </is>
       </c>
     </row>
@@ -2111,66 +2111,66 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>164714</v>
+        <v>230572</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>282</v>
+        <v>458</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>318509</v>
+        <v>292254</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>64,78%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>441</v>
+        <v>731</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>483223</v>
+        <v>522826</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>34,34%</t>
         </is>
       </c>
     </row>
@@ -2182,66 +2182,66 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>82076</v>
+        <v>136972</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>80710</v>
+        <v>153071</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>225</v>
+        <v>422</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>162786</v>
+        <v>290043</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -2253,66 +2253,66 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>84825</v>
+        <v>134431</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>119413</v>
+        <v>200640</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>204239</v>
+        <v>335071</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
@@ -2324,10 +2324,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>566</v>
+        <v>853</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>580624</v>
+        <v>742932</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>935</v>
+        <v>1404</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>761782</v>
+        <v>891456</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>1501</v>
+        <v>2257</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1342407</v>
+        <v>1634388</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -2399,66 +2399,66 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44892</v>
+        <v>213024</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>56967</v>
+        <v>209403</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>117</v>
+        <v>505</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>101859</v>
+        <v>422427</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>8,2%</t>
         </is>
       </c>
     </row>
@@ -2470,66 +2470,66 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>202</v>
+        <v>685</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>200525</v>
+        <v>676828</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>300</v>
+        <v>1081</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>210476</v>
+        <v>694278</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>502</v>
+        <v>1766</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>411001</v>
+        <v>1371106</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -2541,66 +2541,66 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>273</v>
+        <v>864</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>241844</v>
+        <v>772343</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>458</v>
+        <v>1454</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>320150</v>
+        <v>1104707</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>731</v>
+        <v>2318</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>561994</v>
+        <v>1877049</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>41,64%</t>
         </is>
       </c>
     </row>
@@ -2612,66 +2612,66 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>167</v>
+        <v>534</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>143571</v>
+        <v>437413</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>255</v>
+        <v>866</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>168825</v>
+        <v>480839</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
-        <v>422</v>
+        <v>1400</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>312395</v>
+        <v>918252</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>17,2%</t>
         </is>
       </c>
     </row>
@@ -2683,66 +2683,66 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>162</v>
+        <v>573</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>137924</v>
+        <v>471981</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>323</v>
+        <v>1127</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>219126</v>
+        <v>663598</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>485</v>
+        <v>1700</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>357050</v>
+        <v>1135578</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>21,08%</t>
         </is>
       </c>
     </row>
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>853</v>
+        <v>2866</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>768755</v>
+        <v>2571589</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>1404</v>
+        <v>4823</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>975544</v>
+        <v>3152825</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>2257</v>
+        <v>7689</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1744299</v>
+        <v>5724413</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2818,450 +2818,19 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>216195</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>9,44%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>227192</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>7,89%</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>505</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>443387</v>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>694418</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>26,15%</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>24,31%</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>27,89%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1081</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>751616</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>22,9%</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>20,34%</t>
-        </is>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>24,42%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>1766</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>1446034</v>
-      </c>
-      <c r="O35" s="2" t="inlineStr">
-        <is>
-          <t>24,35%</t>
-        </is>
-      </c>
-      <c r="P35" s="2" t="inlineStr">
-        <is>
-          <t>22,81%</t>
-        </is>
-      </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>25,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>864</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>803986</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>30,27%</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>28,36%</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>32,16%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>1454</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>1064763</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>32,44%</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>29,63%</t>
-        </is>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>40,85%</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>2318</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>1868749</v>
-      </c>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>31,47%</t>
-        </is>
-      </c>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>29,56%</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>36,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>534</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>458847</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>18,9%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>866</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>525880</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>16,02%</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>14,25%</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>17,31%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>1400</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>984728</v>
-      </c>
-      <c r="O37" s="2" t="inlineStr">
-        <is>
-          <t>16,58%</t>
-        </is>
-      </c>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>17,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>482223</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>18,16%</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>16,82%</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>19,77%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>1127</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>712602</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>21,71%</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>19,13%</t>
-        </is>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>23,29%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>1700</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>1194825</v>
-      </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>20,12%</t>
-        </is>
-      </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>18,69%</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>21,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>2866</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>2655669</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>4823</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>3282052</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>7689</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>5937722</v>
-      </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+          <t>Población según lo que piensan que es lo mejor que se puede hacer cuando creen que a alguien le está dando un ataque al corazón en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>47846</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2862</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>812</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>7151</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>60556</v>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>108402</v>
+          <t>3657</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13073</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9910</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5957</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16823</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>131899</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>14189</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>123343</v>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>352</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>255242</v>
+          <t>1654</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8397</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>10885</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6357</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>18614</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>192</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>151450</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>569061</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>553259</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>581459</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>310</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>161955</v>
+          <t>91,71%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>89,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93,71%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>616216</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>502</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>313405</v>
+          <t>606173</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>623901</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>93,91%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1185277</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1168203</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1201003</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>91,51%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>94,07%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>137</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>105129</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30132</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>21037</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>43176</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>117647</v>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>24561</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>378</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>222776</v>
+          <t>18841</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31681</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>54693</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>43679</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>67737</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -959,70 +1175,112 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>113486</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11416</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>18734</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>154780</v>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>444</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>268266</v>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15885</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10718</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>24015</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1033,20 +1291,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>663</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>549810</v>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>620505</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>620505</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>620505</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1054,32 +1316,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>1151</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>618281</v>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>656146</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1814</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>1168090</v>
+          <t>656146</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>656146</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1092,6 +1362,36 @@
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1276651</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1276651</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1276651</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1105,70 +1405,112 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>71032</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9988</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>18537</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>52695</v>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>9874</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>123727</v>
+          <t>5570</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15488</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19862</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12239</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>30130</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>156815</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11005</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>26827</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>303</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>195767</v>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>8042</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>470</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>352582</v>
+          <t>4541</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13392</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>19047</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10418</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>36748</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>233068</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1099253</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>1067837</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>1141447</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>404</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>229537</v>
+          <t>92,92%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>90,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>96,49%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>870103</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>644</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>462606</v>
+          <t>855083</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>882462</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93,29%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1969356</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1938771</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2015602</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>93,08%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>91,64%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>95,27%</t>
         </is>
       </c>
     </row>
@@ -1318,70 +1744,112 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>116719</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49812</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>26248</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>71557</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>233</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>135580</v>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>35974</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>375</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>252299</v>
+          <t>26768</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>49926</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>85786</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>54750</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>107815</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -1389,70 +1857,112 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>141014</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12904</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>23574</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>318</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>196218</v>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>8733</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>485</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>337232</v>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15145</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>21636</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>12545</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>32279</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -1463,20 +1973,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>784</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>718648</v>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1182961</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1182961</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1182961</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1484,32 +1998,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>1333</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>809797</v>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>932726</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>2117</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>1528445</v>
+          <t>932726</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>932726</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1522,6 +2044,36 @@
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2415</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2115687</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2115687</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2115687</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1535,70 +2087,112 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>50327</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8644</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>4505</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>16605</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>44147</v>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>94474</v>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9581</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>12832</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6859</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>21878</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>190977</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8830</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>17137</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>181682</v>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10760</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>442</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>372659</v>
+          <t>5062</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18926</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>19590</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>11351</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>29428</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -1677,70 +2313,112 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>157251</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>649247</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>633292</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>659021</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>282</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>420960</v>
+          <t>94,8%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>92,48%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>96,23%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>955</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>876868</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>578212</v>
+          <t>861746</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>891549</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>96,54%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1526115</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1507724</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1550098</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>95,8%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>94,64%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>97,3%</t>
         </is>
       </c>
     </row>
@@ -1748,70 +2426,112 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>78594</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4767</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>10288</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>137</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>74541</v>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>9901</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>153134</v>
+          <t>4191</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>16859</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>14668</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>8584</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>22754</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -1819,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>83050</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13336</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>7188</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>25337</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>111960</v>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6539</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>286</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>195010</v>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12305</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>19875</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>10806</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>32076</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -1893,20 +2655,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>566</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>560198</v>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>684824</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>684824</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>684824</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1914,32 +2680,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>935</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>833291</v>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>908256</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1501</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>1393489</v>
+          <t>908256</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>908256</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1952,6 +2726,36 @@
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1593080</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1593080</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1593080</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1965,70 +2769,112 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>43819</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>13131</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>52005</v>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>10474</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>95824</v>
+          <t>5898</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>17382</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>17445</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>11446</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>26417</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -2036,70 +2882,112 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>202</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>197137</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>8751</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>193486</v>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>10523</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>502</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>390623</v>
+          <t>5979</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>17255</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>13887</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>8917</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>21212</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2995,112 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>273</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>230572</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>866055</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>852720</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>875478</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>458</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>292254</v>
+          <t>96,14%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>94,66%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>97,19%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>1020054</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>731</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>522826</v>
+          <t>1006462</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1033986</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>95,06%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>2358</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1886109</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1866495</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1903263</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>95,55%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>94,56%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>96,42%</t>
         </is>
       </c>
     </row>
@@ -2178,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>136972</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>15229</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>9235</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>25691</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>255</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>153071</v>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>20137</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>422</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>290043</v>
+          <t>13082</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>28288</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>35365</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>25313</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>49218</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -2249,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>134431</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>9210</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>4776</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>16625</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>323</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>200640</v>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>11856</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>485</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>335071</v>
+          <t>6442</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>21446</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>21066</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>14346</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>32608</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -2323,20 +3337,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>853</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>742932</v>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>900828</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>900828</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>900828</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -2344,32 +3362,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>1404</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>891456</v>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1073044</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>2257</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>1634388</v>
+          <t>1073044</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1073044</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2382,6 +3408,36 @@
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>1973872</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>1973872</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>1973872</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2395,70 +3451,112 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>213024</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>28465</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>18851</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>41030</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>209403</v>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>31584</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>505</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>422427</v>
+          <t>22956</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>42213</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>60049</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>46928</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>74841</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -2466,70 +3564,112 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>676828</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>30232</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>18415</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>46461</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>1081</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>694278</v>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>33177</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>1766</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>1371106</v>
+          <t>24183</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>44956</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>63409</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>49463</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>83598</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -2537,70 +3677,112 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>864</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>772343</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3183614</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>3148228</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>3230814</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1454</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1104707</v>
+          <t>93,94%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>92,89%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>95,33%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>3383242</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>2318</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>1877049</v>
+          <t>3352878</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3420231</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>94,76%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>7886</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>6566857</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>6522834</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>6623232</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>94,36%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>93,73%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -2608,70 +3790,112 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>534</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>437413</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>99940</t>
+        </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>78626</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>123591</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>866</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>480839</v>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>90573</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>1400</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>918252</v>
+          <t>69773</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>110088</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>190513</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>216101</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -2679,70 +3903,112 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>471981</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>46866</t>
+        </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>32964</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>63600</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>1127</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>663598</v>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>31597</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>1700</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>1135578</v>
+          <t>22019</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>44592</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>78463</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>61243</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>95942</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -2753,20 +4019,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>2866</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>2571589</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>3287</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3389117</t>
+        </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3389117</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3389117</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2774,32 +4044,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>4823</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>3152825</v>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3570173</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>7689</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>5724413</v>
+          <t>3570173</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>3570173</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2812,6 +4090,36 @@
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2826,15 +4134,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
